--- a/data/trans_bre/DCD-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Estudios-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 15,4</t>
+          <t>8,76; 15,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,65</t>
+          <t>5,67; 12,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 21,7</t>
+          <t>12,86; 21,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,84; 144,12</t>
+          <t>64,17; 147,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,58; 119,76</t>
+          <t>40,42; 117,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,48; 90,35</t>
+          <t>43,16; 92,86</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,15</t>
+          <t>5,33; 9,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,1</t>
+          <t>3,56; 6,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,99</t>
+          <t>5,88; 12,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,44; 218,05</t>
+          <t>91,83; 213,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,45; 155,16</t>
+          <t>57,49; 152,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,71; 113,97</t>
+          <t>52,76; 117,42</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,92</t>
+          <t>4,64; 10,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,6</t>
+          <t>-0,46; 5,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 15,13</t>
+          <t>8,12; 15,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>111,56; 822,42</t>
+          <t>108,93; 800,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 171,83</t>
+          <t>-10,08; 156,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,49; 241,43</t>
+          <t>79,38; 237,34</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 11,07</t>
+          <t>8,04; 11,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,76</t>
+          <t>4,9; 7,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,5</t>
+          <t>9,91; 14,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>109,67; 184,41</t>
+          <t>110,98; 183,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,12; 128,23</t>
+          <t>65,95; 130,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,51; 119,24</t>
+          <t>71,04; 118,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,17</t>
+          <t>8,63; 15,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 12,56</t>
+          <t>5,64; 12,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,17; 147,66</t>
+          <t>59,87; 141,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,42; 117,55</t>
+          <t>39,24; 116,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,18</t>
+          <t>5,25; 8,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,95</t>
+          <t>3,48; 6,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,83; 213,05</t>
+          <t>93,43; 210,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,49; 152,69</t>
+          <t>58,27; 156,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,84</t>
+          <t>4,51; 10,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,57</t>
+          <t>-0,06; 5,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>108,93; 800,78</t>
+          <t>110,03; 791,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 156,84</t>
+          <t>-3,95; 179,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,1</t>
+          <t>8,22; 11,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,97</t>
+          <t>4,85; 7,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>110,98; 183,1</t>
+          <t>112,22; 189,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,95; 130,08</t>
+          <t>65,81; 128,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/DCD-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 15,04</t>
+          <t>8,84; 15,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 12,61</t>
+          <t>5,37; 12,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,86; 21,9</t>
+          <t>12,63; 21,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,87; 141,18</t>
+          <t>61,84; 144,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,24; 116,68</t>
+          <t>37,58; 119,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,16; 92,86</t>
+          <t>42,48; 90,35</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,94</t>
+          <t>5,34; 9,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,96</t>
+          <t>3,62; 7,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 12,17</t>
+          <t>5,96; 11,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,43; 210,54</t>
+          <t>94,44; 218,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,27; 156,61</t>
+          <t>61,45; 155,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,76; 117,42</t>
+          <t>48,71; 113,97</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,91</t>
+          <t>4,22; 10,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 5,88</t>
+          <t>-0,37; 5,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 15,22</t>
+          <t>8,22; 15,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>110,03; 791,58</t>
+          <t>111,56; 822,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 179,9</t>
+          <t>-7,05; 171,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>79,38; 237,34</t>
+          <t>81,49; 241,43</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 11,36</t>
+          <t>8,03; 11,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,92</t>
+          <t>4,85; 7,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,55</t>
+          <t>9,93; 14,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>112,22; 189,35</t>
+          <t>109,67; 184,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,81; 128,74</t>
+          <t>64,12; 128,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,04; 118,0</t>
+          <t>72,51; 119,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>73,09%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>65,58%</t>
+          <t>67,99%</t>
         </is>
       </c>
     </row>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,84; 15,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 15,4</t>
+          <t>5,37; 12,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,65</t>
+          <t>12,97; 21,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 21,7</t>
+          <t>61,84; 144,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,58; 119,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,84; 144,12</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>37,58; 119,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>42,48; 90,35</t>
+          <t>44,0; 93,49</t>
         </is>
       </c>
     </row>
@@ -720,42 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>144,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>144,95%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>99,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>83,18%</t>
+          <t>88,39%</t>
         </is>
       </c>
     </row>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,34; 9,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,15</t>
+          <t>3,62; 7,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,1</t>
+          <t>3,55; 12,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,99</t>
+          <t>94,44; 218,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,45; 155,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,44; 218,05</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>61,45; 155,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>48,71; 113,97</t>
+          <t>38,64; 153,21</t>
         </is>
       </c>
     </row>
@@ -820,42 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>321,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>321,24%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>54,22%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>146,47%</t>
+          <t>146,46%</t>
         </is>
       </c>
     </row>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 10,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,92</t>
+          <t>-0,37; 5,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,6</t>
+          <t>8,09; 15,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 15,13</t>
+          <t>111,56; 822,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 171,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>111,56; 822,42</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 171,83</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>81,49; 241,43</t>
+          <t>81,7; 241,24</t>
         </is>
       </c>
     </row>
@@ -920,42 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>12,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>145,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>145,35%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>93,52%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>95,46%</t>
+          <t>100,23%</t>
         </is>
       </c>
     </row>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,03; 11,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 11,07</t>
+          <t>4,85; 7,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,76</t>
+          <t>8,13; 15,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,5</t>
+          <t>109,67; 184,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,12; 128,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>109,67; 184,41</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>64,12; 128,23</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>72,51; 119,24</t>
+          <t>65,74; 150,79</t>
         </is>
       </c>
     </row>
@@ -1016,11 +920,11 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/DCD-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 15,4</t>
+          <t>8,89; 15,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,65</t>
+          <t>5,59; 12,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 21,94</t>
+          <t>13,04; 21,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61,84; 144,12</t>
+          <t>63,68; 145,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,58; 119,76</t>
+          <t>40,74; 120,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,0; 93,49</t>
+          <t>45,67; 96,61</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,15</t>
+          <t>5,04; 9,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,1</t>
+          <t>3,43; 7,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,87</t>
+          <t>3,94; 13,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94,44; 218,05</t>
+          <t>88,27; 211,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,45; 155,16</t>
+          <t>55,91; 155,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,64; 153,21</t>
+          <t>38,15; 163,55</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,92</t>
+          <t>4,57; 11,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,6</t>
+          <t>-0,71; 5,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,09; 15,01</t>
+          <t>8,16; 15,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>111,56; 822,42</t>
+          <t>122,15; 864,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 171,83</t>
+          <t>-14,02; 164,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,7; 241,24</t>
+          <t>79,7; 238,54</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 11,07</t>
+          <t>8,12; 11,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,76</t>
+          <t>4,89; 7,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 15,41</t>
+          <t>7,72; 15,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>109,67; 184,41</t>
+          <t>109,62; 180,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,12; 128,23</t>
+          <t>65,93; 126,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,74; 150,79</t>
+          <t>66,82; 148,98</t>
         </is>
       </c>
     </row>
